--- a/SolucionPrecios01/InflacionMensual.xlsx
+++ b/SolucionPrecios01/InflacionMensual.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFD45A5-6785-4ACB-B8D7-A537A62AF6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9D160D-13C1-4F72-9472-CF5915D5CEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,8 +108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="####\-##"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -238,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -295,6 +296,12 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E801"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +747,7 @@
       <c r="C14" s="18">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="20">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E14" s="19">
@@ -757,7 +764,7 @@
       <c r="C15" s="14">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E15" s="15">
@@ -774,7 +781,7 @@
       <c r="C16" s="18">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="20">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E16" s="19">
@@ -791,7 +798,7 @@
       <c r="C17" s="14">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="21">
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="E17" s="15">
@@ -808,7 +815,7 @@
       <c r="C18" s="18">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="20">
         <v>6.3E-3</v>
       </c>
       <c r="E18" s="19">
@@ -825,7 +832,7 @@
       <c r="C19" s="14">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="21">
         <v>3.8E-3</v>
       </c>
       <c r="E19" s="15">
@@ -842,7 +849,7 @@
       <c r="C20" s="18">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="20">
         <v>1.8E-3</v>
       </c>
       <c r="E20" s="19">
@@ -859,7 +866,7 @@
       <c r="C21" s="14">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="21">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E21" s="15">
@@ -876,7 +883,7 @@
       <c r="C22" s="18">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="20">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E22" s="19">
@@ -893,7 +900,7 @@
       <c r="C23" s="14">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="21">
         <v>1.4E-3</v>
       </c>
       <c r="E23" s="15">
@@ -910,7 +917,7 @@
       <c r="C24" s="18">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="20">
         <v>-5.0000000000000001E-4</v>
       </c>
       <c r="E24" s="19">
@@ -927,7 +934,7 @@
       <c r="C25" s="14">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="21">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E25" s="15">
@@ -944,7 +951,7 @@
       <c r="C26" s="18">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="20">
         <v>2.3E-3</v>
       </c>
       <c r="E26" s="19">
@@ -961,7 +968,7 @@
       <c r="C27" s="14">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="21">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E27" s="15">
@@ -978,7 +985,7 @@
       <c r="C28" s="18">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="20">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E28" s="19">
@@ -995,7 +1002,7 @@
       <c r="C29" s="14">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="21">
         <v>1.01E-2</v>
       </c>
       <c r="E29" s="15">
@@ -1012,7 +1019,7 @@
       <c r="C30" s="18">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="20">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E30" s="19">
@@ -1029,7 +1036,7 @@
       <c r="C31" s="14">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="21">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="E31" s="15">
@@ -1046,7 +1053,7 @@
       <c r="C32" s="18">
         <v>5.96E-2</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="20">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E32" s="19">
@@ -1063,7 +1070,7 @@
       <c r="C33" s="14">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="21">
         <v>-5.9999999999999995E-4</v>
       </c>
       <c r="E33" s="15">
@@ -1080,7 +1087,7 @@
       <c r="C34" s="18">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="20">
         <v>-5.0000000000000001E-4</v>
       </c>
       <c r="E34" s="19">
@@ -1097,7 +1104,7 @@
       <c r="C35" s="14">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="21">
         <v>-3.2000000000000002E-3</v>
       </c>
       <c r="E35" s="15">
@@ -1114,7 +1121,7 @@
       <c r="C36" s="18">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="20">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="E36" s="19">
@@ -1131,7 +1138,7 @@
       <c r="C37" s="14">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="21">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E37" s="15">
@@ -1148,7 +1155,7 @@
       <c r="C38" s="18">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="20">
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="E38" s="19">
@@ -1165,7 +1172,7 @@
       <c r="C39" s="14">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E39" s="15">
@@ -1182,7 +1189,7 @@
       <c r="C40" s="18">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="20">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="E40" s="19">
@@ -1199,7 +1206,7 @@
       <c r="C41" s="14">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="21">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="E41" s="15">
@@ -1216,7 +1223,7 @@
       <c r="C42" s="18">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="20">
         <v>1.29E-2</v>
       </c>
       <c r="E42" s="19">
@@ -1233,7 +1240,7 @@
       <c r="C43" s="14">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="21">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E43" s="15">
@@ -1250,7 +1257,7 @@
       <c r="C44" s="18">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="20">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E44" s="19">
@@ -1267,7 +1274,7 @@
       <c r="C45" s="14">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="21">
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="E45" s="15">
@@ -1284,7 +1291,7 @@
       <c r="C46" s="18">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="20">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="E46" s="19">
@@ -1301,7 +1308,7 @@
       <c r="C47" s="14">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="21">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E47" s="15">
@@ -1318,7 +1325,7 @@
       <c r="C48" s="18">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="20">
         <v>1.9E-3</v>
       </c>
       <c r="E48" s="19">
@@ -1335,7 +1342,7 @@
       <c r="C49" s="14">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="21">
         <v>1E-3</v>
       </c>
       <c r="E49" s="15">
@@ -1352,7 +1359,7 @@
       <c r="C50" s="18">
         <v>4.41E-2</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="20">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E50" s="19">
@@ -1369,7 +1376,7 @@
       <c r="C51" s="14">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="21">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="E51" s="15">
@@ -1386,7 +1393,7 @@
       <c r="C52" s="18">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="20">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="E52" s="19">
@@ -1403,7 +1410,7 @@
       <c r="C53" s="14">
         <v>4.36E-2</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="21">
         <v>1.15E-2</v>
       </c>
       <c r="E53" s="15">
@@ -1420,7 +1427,7 @@
       <c r="C54" s="18">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="20">
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="E54" s="19">
@@ -1437,7 +1444,7 @@
       <c r="C55" s="14">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="21">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E55" s="15">
@@ -1454,7 +1461,7 @@
       <c r="C56" s="18">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="20">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E56" s="19">
@@ -1471,7 +1478,7 @@
       <c r="C57" s="14">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="21">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="E57" s="15">
@@ -1488,7 +1495,7 @@
       <c r="C58" s="18">
         <v>2.86E-2</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="20">
         <v>1.4E-3</v>
       </c>
       <c r="E58" s="19">
@@ -1505,7 +1512,7 @@
       <c r="C59" s="14">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="21">
         <v>2E-3</v>
       </c>
       <c r="E59" s="15">
@@ -1522,7 +1529,7 @@
       <c r="C60" s="18">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="20">
         <v>1.5E-3</v>
       </c>
       <c r="E60" s="19">
@@ -1539,7 +1546,7 @@
       <c r="C61" s="14">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E61" s="15">
@@ -1556,7 +1563,7 @@
       <c r="C62" s="18">
         <v>2.93E-2</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="20">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E62" s="19">
@@ -1573,7 +1580,7 @@
       <c r="C63" s="14">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E63" s="15">
@@ -1590,7 +1597,7 @@
       <c r="C64" s="18">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="20">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="E64" s="19">
@@ -1607,7 +1614,7 @@
       <c r="C65" s="14">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="21">
         <v>6.3E-3</v>
       </c>
       <c r="E65" s="15">
@@ -1624,7 +1631,7 @@
       <c r="C66" s="18">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="20">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="E66" s="19">
@@ -1641,7 +1648,7 @@
       <c r="C67" s="14">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="21">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E67" s="15">
@@ -1658,7 +1665,7 @@
       <c r="C68" s="18">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="20">
         <v>-2.2000000000000001E-3</v>
       </c>
       <c r="E68" s="19">
@@ -1675,7 +1682,7 @@
       <c r="C69" s="14">
         <v>1.84E-2</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="21">
         <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E69" s="15">
@@ -1692,7 +1699,7 @@
       <c r="C70" s="18">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="20">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E70" s="19">
@@ -1709,7 +1716,7 @@
       <c r="C71" s="14">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="21">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E71" s="15">
@@ -1726,7 +1733,7 @@
       <c r="C72" s="18">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="20">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E72" s="19">
@@ -1743,7 +1750,7 @@
       <c r="C73" s="14">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="21">
         <v>2.3E-3</v>
       </c>
       <c r="E73" s="15">
@@ -1760,7 +1767,7 @@
       <c r="C74" s="18">
         <v>0.02</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="20">
         <v>2.8E-3</v>
       </c>
       <c r="E74" s="19">
@@ -1777,7 +1784,7 @@
       <c r="C75" s="14">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="21">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E75" s="15">
@@ -1794,7 +1801,7 @@
       <c r="C76" s="18">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="20">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="E76" s="19">
@@ -1811,7 +1818,7 @@
       <c r="C77" s="14">
         <v>1.83E-2</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="21">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="E77" s="15">
@@ -1828,7 +1835,7 @@
       <c r="C78" s="18">
         <v>0.02</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E78" s="19">
@@ -1845,7 +1852,7 @@
       <c r="C79" s="14">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E79" s="15">
@@ -1862,7 +1869,7 @@
       <c r="C80" s="18">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="20">
         <v>-1.4E-3</v>
       </c>
       <c r="E80" s="19">
@@ -1879,7 +1886,7 @@
       <c r="C81" s="14">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="21">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="E81" s="15">
@@ -1896,7 +1903,7 @@
       <c r="C82" s="18">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="20">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E82" s="19">
@@ -1913,7 +1920,7 @@
       <c r="C83" s="14">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="21">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E83" s="15">
@@ -1930,7 +1937,7 @@
       <c r="C84" s="18">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="20">
         <v>-2.0000000000000001E-4</v>
       </c>
       <c r="E84" s="19">
@@ -1947,7 +1954,7 @@
       <c r="C85" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="21">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E85" s="15">
@@ -1964,7 +1971,7 @@
       <c r="C86" s="18">
         <v>3.44E-2</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E86" s="19">
@@ -1981,7 +1988,7 @@
       <c r="C87" s="14">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="21">
         <v>1.4E-3</v>
       </c>
       <c r="E87" s="15">
@@ -1998,7 +2005,7 @@
       <c r="C88" s="18">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="20">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E88" s="19">
@@ -2015,7 +2022,7 @@
       <c r="C89" s="14">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="21">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="E89" s="15">
@@ -2032,7 +2039,7 @@
       <c r="C90" s="18">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="20">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="E90" s="19">
@@ -2049,7 +2056,7 @@
       <c r="C91" s="14">
         <v>3.73E-2</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="21">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="E91" s="15">
@@ -2066,7 +2073,7 @@
       <c r="C92" s="18">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="20">
         <v>1.4E-3</v>
       </c>
       <c r="E92" s="19">
@@ -2083,7 +2090,7 @@
       <c r="C93" s="14">
         <v>4.02E-2</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="21">
         <v>1.9E-3</v>
       </c>
       <c r="E93" s="15">
@@ -2100,7 +2107,7 @@
       <c r="C94" s="18">
         <v>3.73E-2</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="20">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E94" s="19">
@@ -2117,7 +2124,7 @@
       <c r="C95" s="14">
         <v>3.27E-2</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="21">
         <v>-2.9999999999999997E-4</v>
       </c>
       <c r="E95" s="15">
@@ -2134,7 +2141,7 @@
       <c r="C96" s="18">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="20">
         <v>1.4E-3</v>
       </c>
       <c r="E96" s="19">
@@ -2151,7 +2158,7 @@
       <c r="C97" s="14">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="21">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="E97" s="15">
@@ -2168,7 +2175,7 @@
       <c r="C98" s="18">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="20">
         <v>2.8E-3</v>
       </c>
       <c r="E98" s="19">
@@ -2185,7 +2192,7 @@
       <c r="C99" s="14">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="21">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E99" s="15">
@@ -2202,7 +2209,7 @@
       <c r="C100" s="18">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="20">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E100" s="19">
@@ -2219,7 +2226,7 @@
       <c r="C101" s="14">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D101" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E101" s="15">
@@ -2236,7 +2243,7 @@
       <c r="C102" s="18">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="20">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="E102" s="19">
@@ -2253,7 +2260,7 @@
       <c r="C103" s="14">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="21">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="E103" s="15">
@@ -2270,7 +2277,7 @@
       <c r="C104" s="18">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="20">
         <v>1.9E-3</v>
       </c>
       <c r="E104" s="19">
@@ -2287,7 +2294,7 @@
       <c r="C105" s="14">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="21">
         <v>-8.9999999999999998E-4</v>
       </c>
       <c r="E105" s="15">
@@ -2304,7 +2311,7 @@
       <c r="C106" s="18">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="20">
         <v>-1.4E-3</v>
       </c>
       <c r="E106" s="19">
@@ -2321,7 +2328,7 @@
       <c r="C107" s="14">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D107" s="21">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E107" s="15">
@@ -2338,7 +2345,7 @@
       <c r="C108" s="18">
         <v>2.24E-2</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="20">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="E108" s="19">
@@ -2355,7 +2362,7 @@
       <c r="C109" s="14">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="D109" s="14">
+      <c r="D109" s="21">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E109" s="15">
@@ -2372,7 +2379,7 @@
       <c r="C110" s="18">
         <v>2.07E-2</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="20">
         <v>1E-3</v>
       </c>
       <c r="E110" s="19">
@@ -2389,7 +2396,7 @@
       <c r="C111" s="14">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="D111" s="14">
+      <c r="D111" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E111" s="15">
@@ -2406,7 +2413,7 @@
       <c r="C112" s="18">
         <v>1.84E-2</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="20">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E112" s="19">
@@ -2423,7 +2430,7 @@
       <c r="C113" s="14">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="D113" s="14">
+      <c r="D113" s="21">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="E113" s="15">
@@ -2440,7 +2447,7 @@
       <c r="C114" s="18">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="20">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E114" s="19">
@@ -2457,7 +2464,7 @@
       <c r="C115" s="14">
         <v>0.02</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="21">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E115" s="15">
@@ -2474,7 +2481,7 @@
       <c r="C116" s="18">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D116" s="20">
         <v>-6.9999999999999999E-4</v>
       </c>
       <c r="E116" s="19">
@@ -2491,7 +2498,7 @@
       <c r="C117" s="14">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="D117" s="14">
+      <c r="D117" s="21">
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E117" s="15">
@@ -2508,7 +2515,7 @@
       <c r="C118" s="18">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="20">
         <v>-1.1000000000000001E-3</v>
       </c>
       <c r="E118" s="19">
@@ -2525,7 +2532,7 @@
       <c r="C119" s="14">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="D119" s="14">
+      <c r="D119" s="21">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E119" s="15">
@@ -2542,7 +2549,7 @@
       <c r="C120" s="18">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="20">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="E120" s="19">
@@ -2559,7 +2566,7 @@
       <c r="C121" s="14">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="D121" s="14">
+      <c r="D121" s="21">
         <v>-5.9999999999999995E-4</v>
       </c>
       <c r="E121" s="15">
@@ -2576,7 +2583,7 @@
       <c r="C122" s="18">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="20">
         <v>1E-4</v>
       </c>
       <c r="E122" s="19">
@@ -2593,7 +2600,7 @@
       <c r="C123" s="14">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="D123" s="14">
+      <c r="D123" s="21">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="E123" s="15">
@@ -2610,7 +2617,7 @@
       <c r="C124" s="18">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="20">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E124" s="19">
@@ -2627,7 +2634,7 @@
       <c r="C125" s="14">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="D125" s="14">
+      <c r="D125" s="21">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="E125" s="15">
@@ -2644,7 +2651,7 @@
       <c r="C126" s="18">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="20">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="E126" s="19">
@@ -2661,7 +2668,7 @@
       <c r="C127" s="14">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D127" s="14">
+      <c r="D127" s="21">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="E127" s="15">
@@ -2678,7 +2685,7 @@
       <c r="C128" s="18">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="20">
         <v>2.8E-3</v>
       </c>
       <c r="E128" s="19">
@@ -2695,7 +2702,7 @@
       <c r="C129" s="14">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="21">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E129" s="15">
@@ -2712,7 +2719,7 @@
       <c r="C130" s="18">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="20">
         <v>-1.9E-3</v>
       </c>
       <c r="E130" s="19">
@@ -2729,7 +2736,7 @@
       <c r="C131" s="14">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="D131" s="14">
+      <c r="D131" s="21">
         <v>1.9E-3</v>
       </c>
       <c r="E131" s="15">
@@ -2746,7 +2753,7 @@
       <c r="C132" s="18">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="20">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E132" s="19">
@@ -2763,7 +2770,7 @@
       <c r="C133" s="14">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="D133" s="14">
+      <c r="D133" s="21">
         <v>8.6E-3</v>
       </c>
       <c r="E133" s="15">
@@ -2780,7 +2787,7 @@
       <c r="C134" s="18">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="20">
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="E134" s="19">
@@ -2797,7 +2804,7 @@
       <c r="C135" s="14">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="D135" s="14">
+      <c r="D135" s="21">
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="E135" s="15">
@@ -2814,7 +2821,7 @@
       <c r="C136" s="18">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="20">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E136" s="19">
@@ -2831,7 +2838,7 @@
       <c r="C137" s="14">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="D137" s="14">
+      <c r="D137" s="21">
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="E137" s="15">
@@ -2848,7 +2855,7 @@
       <c r="C138" s="18">
         <v>0.06</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="20">
         <v>1.06E-2</v>
       </c>
       <c r="E138" s="19">
@@ -2865,7 +2872,7 @@
       <c r="C139" s="14">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="D139" s="14">
+      <c r="D139" s="21">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="E139" s="15">
@@ -2882,7 +2889,7 @@
       <c r="C140" s="18">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="20">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E140" s="19">
@@ -2899,7 +2906,7 @@
       <c r="C141" s="14">
         <v>5.16E-2</v>
       </c>
-      <c r="D141" s="14">
+      <c r="D141" s="21">
         <v>1E-4</v>
       </c>
       <c r="E141" s="15">
@@ -2916,7 +2923,7 @@
       <c r="C142" s="18">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="20">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E142" s="19">
@@ -2933,7 +2940,7 @@
       <c r="C143" s="14">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="D143" s="14">
+      <c r="D143" s="21">
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E143" s="15">
@@ -2950,7 +2957,7 @@
       <c r="C144" s="18">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="D144" s="18">
+      <c r="D144" s="20">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="E144" s="19">
@@ -2967,7 +2974,7 @@
       <c r="C145" s="14">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="D145" s="14">
+      <c r="D145" s="21">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E145" s="15">
@@ -2984,7 +2991,7 @@
       <c r="C146" s="18">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E146" s="19">
@@ -3001,7 +3008,7 @@
       <c r="C147" s="14">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="D147" s="14">
+      <c r="D147" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E147" s="15">
@@ -3018,7 +3025,7 @@
       <c r="C148" s="18">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="20">
         <v>1.21E-2</v>
       </c>
       <c r="E148" s="19">
@@ -3035,7 +3042,7 @@
       <c r="C149" s="14">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="D149" s="14">
+      <c r="D149" s="21">
         <v>1.17E-2</v>
       </c>
       <c r="E149" s="15">
@@ -3052,7 +3059,7 @@
       <c r="C150" s="18">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="20">
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="E150" s="19">
@@ -3069,7 +3076,7 @@
       <c r="C151" s="14">
         <v>4.48E-2</v>
       </c>
-      <c r="D151" s="14">
+      <c r="D151" s="21">
         <v>2.3E-3</v>
       </c>
       <c r="E151" s="15">
@@ -3086,7 +3093,7 @@
       <c r="C152" s="18">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="20">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E152" s="19">
@@ -3103,7 +3110,7 @@
       <c r="C153" s="14">
         <v>4.19E-2</v>
       </c>
-      <c r="D153" s="14">
+      <c r="D153" s="21">
         <v>-1.4E-3</v>
       </c>
       <c r="E153" s="15">
@@ -3120,7 +3127,7 @@
       <c r="C154" s="18">
         <v>4.58E-2</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="20">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E154" s="19">
@@ -3137,7 +3144,7 @@
       <c r="C155" s="14">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="D155" s="14">
+      <c r="D155" s="21">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="E155" s="15">
@@ -3154,7 +3161,7 @@
       <c r="C156" s="18">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="20">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="E156" s="19">
@@ -3171,7 +3178,7 @@
       <c r="C157" s="14">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E157" s="15">
@@ -3188,7 +3195,7 @@
       <c r="C158" s="18">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="D158" s="18">
+      <c r="D158" s="20">
         <v>3.3E-3</v>
       </c>
       <c r="E158" s="19">
@@ -3205,7 +3212,7 @@
       <c r="C159" s="14">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="21">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="E159" s="15">
@@ -3222,7 +3229,7 @@
       <c r="C160" s="18">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="D160" s="18">
+      <c r="D160" s="20">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E160" s="19">
@@ -3239,7 +3246,7 @@
       <c r="C161" s="14">
         <v>4.19E-2</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="21">
         <v>6.6E-3</v>
       </c>
       <c r="E161" s="15">
@@ -3256,7 +3263,7 @@
       <c r="C162" s="18">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="20">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="E162" s="19">
@@ -3273,7 +3280,7 @@
       <c r="C163" s="14">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="D163" s="14">
+      <c r="D163" s="21">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="E163" s="15">
@@ -3290,7 +3297,7 @@
       <c r="C164" s="18">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="20">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E164" s="19">
@@ -3307,7 +3314,7 @@
       <c r="C165" s="14">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="D165" s="14">
+      <c r="D165" s="21">
         <v>2.3E-3</v>
       </c>
       <c r="E165" s="15">
@@ -3324,7 +3331,7 @@
       <c r="C166" s="18">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="20">
         <v>4.3E-3</v>
       </c>
       <c r="E166" s="19">
@@ -3341,7 +3348,7 @@
       <c r="C167" s="14">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="D167" s="14">
+      <c r="D167" s="21">
         <v>0</v>
       </c>
       <c r="E167" s="15">
@@ -3358,7 +3365,7 @@
       <c r="C168" s="18">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E168" s="19">
@@ -3375,7 +3382,7 @@
       <c r="C169" s="14">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E169" s="15">
@@ -3392,7 +3399,7 @@
       <c r="C170" s="18">
         <v>5.04E-2</v>
       </c>
-      <c r="D170" s="18">
+      <c r="D170" s="20">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="E170" s="19">
@@ -3409,7 +3416,7 @@
       <c r="C171" s="14">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="21">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="E171" s="15">
@@ -3426,7 +3433,7 @@
       <c r="C172" s="18">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="D172" s="18">
+      <c r="D172" s="20">
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="E172" s="19">
@@ -3443,7 +3450,7 @@
       <c r="C173" s="14">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="21">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E173" s="15">
@@ -3460,7 +3467,7 @@
       <c r="C174" s="18">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="D174" s="18">
+      <c r="D174" s="20">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="E174" s="19">
@@ -3477,7 +3484,7 @@
       <c r="C175" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="D175" s="14">
+      <c r="D175" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E175" s="15">
@@ -3494,7 +3501,7 @@
       <c r="C176" s="18">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="D176" s="18">
+      <c r="D176" s="20">
         <v>2.8E-3</v>
       </c>
       <c r="E176" s="19">
@@ -3511,7 +3518,7 @@
       <c r="C177" s="14">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D177" s="14">
+      <c r="D177" s="21">
         <v>-1E-4</v>
       </c>
       <c r="E177" s="15">
@@ -3528,7 +3535,7 @@
       <c r="C178" s="18">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="D178" s="18">
+      <c r="D178" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E178" s="19">
@@ -3545,7 +3552,7 @@
       <c r="C179" s="14">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="D179" s="14">
+      <c r="D179" s="21">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E179" s="15">
@@ -3562,7 +3569,7 @@
       <c r="C180" s="18">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="D180" s="18">
+      <c r="D180" s="20">
         <v>-2.9999999999999997E-4</v>
       </c>
       <c r="E180" s="19">
@@ -3579,7 +3586,7 @@
       <c r="C181" s="14">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="D181" s="14">
+      <c r="D181" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E181" s="15">
@@ -3596,7 +3603,7 @@
       <c r="C182" s="18">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="D182" s="18">
+      <c r="D182" s="20">
         <v>3.8E-3</v>
       </c>
       <c r="E182" s="19">
@@ -3613,7 +3620,7 @@
       <c r="C183" s="14">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="D183" s="14">
+      <c r="D183" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E183" s="15">
@@ -3630,7 +3637,7 @@
       <c r="C184" s="18">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="D184" s="18">
+      <c r="D184" s="20">
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="E184" s="19">
@@ -3647,7 +3654,7 @@
       <c r="C185" s="14">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="D185" s="14">
+      <c r="D185" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="E185" s="15">
@@ -3664,7 +3671,7 @@
       <c r="C186" s="18">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="D186" s="18">
+      <c r="D186" s="20">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="E186" s="19">
@@ -3681,7 +3688,7 @@
       <c r="C187" s="14">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="D187" s="14">
+      <c r="D187" s="21">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="E187" s="15">
@@ -3698,7 +3705,7 @@
       <c r="C188" s="18">
         <v>6.13E-2</v>
       </c>
-      <c r="D188" s="18">
+      <c r="D188" s="20">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E188" s="19">
@@ -3715,7 +3722,7 @@
       <c r="C189" s="14">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="D189" s="14">
+      <c r="D189" s="21">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E189" s="15">
@@ -3732,7 +3739,7 @@
       <c r="C190" s="18">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="20">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E190" s="19">
@@ -3749,7 +3756,7 @@
       <c r="C191" s="14">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="D191" s="14">
+      <c r="D191" s="21">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E191" s="15">
@@ -3766,7 +3773,7 @@
       <c r="C192" s="18">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="D192" s="18">
+      <c r="D192" s="20">
         <v>-1.4E-3</v>
       </c>
       <c r="E192" s="19">
@@ -3783,7 +3790,7 @@
       <c r="C193" s="14">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="D193" s="14">
+      <c r="D193" s="21">
         <v>-5.0000000000000001E-4</v>
       </c>
       <c r="E193" s="15">
@@ -3800,7 +3807,7 @@
       <c r="C194" s="18">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="D194" s="18">
+      <c r="D194" s="20">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="E194" s="19">
@@ -3817,7 +3824,7 @@
       <c r="C195" s="14">
         <v>7.85E-2</v>
       </c>
-      <c r="D195" s="14">
+      <c r="D195" s="21">
         <v>1.15E-2</v>
       </c>
       <c r="E195" s="15">
@@ -3834,7 +3841,7 @@
       <c r="C196" s="18">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D196" s="18">
+      <c r="D196" s="20">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="E196" s="19">
@@ -3851,7 +3858,7 @@
       <c r="C197" s="14">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="D197" s="14">
+      <c r="D197" s="21">
         <v>1.11E-2</v>
       </c>
       <c r="E197" s="15">
@@ -3868,7 +3875,7 @@
       <c r="C198" s="18">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="D198" s="18">
+      <c r="D198" s="20">
         <v>1.17E-2</v>
       </c>
       <c r="E198" s="19">
@@ -3885,7 +3892,7 @@
       <c r="C199" s="14">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D199" s="14">
+      <c r="D199" s="21">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E199" s="15">
@@ -3902,7 +3909,7 @@
       <c r="C200" s="18">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="D200" s="18">
+      <c r="D200" s="20">
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="E200" s="19">
@@ -3919,7 +3926,7 @@
       <c r="C201" s="14">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="D201" s="14">
+      <c r="D201" s="21">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="E201" s="15">
@@ -3936,7 +3943,7 @@
       <c r="C202" s="18">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="D202" s="18">
+      <c r="D202" s="20">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="E202" s="19">
@@ -3953,7 +3960,7 @@
       <c r="C203" s="14">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="D203" s="14">
+      <c r="D203" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E203" s="15">
@@ -3970,7 +3977,7 @@
       <c r="C204" s="18">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="D204" s="18">
+      <c r="D204" s="20">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E204" s="19">
@@ -3987,7 +3994,7 @@
       <c r="C205" s="14">
         <v>6.25E-2</v>
       </c>
-      <c r="D205" s="14">
+      <c r="D205" s="21">
         <v>4.3E-3</v>
       </c>
       <c r="E205" s="15">
@@ -4004,7 +4011,7 @@
       <c r="C206" s="18">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="D206" s="18">
+      <c r="D206" s="20">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E206" s="19">
@@ -4021,7 +4028,7 @@
       <c r="C207" s="14">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="D207" s="14">
+      <c r="D207" s="21">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E207" s="15">
@@ -4038,7 +4045,7 @@
       <c r="C208" s="18">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="D208" s="18">
+      <c r="D208" s="20">
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="E208" s="19">
@@ -4055,7 +4062,7 @@
       <c r="C209" s="14">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D209" s="14">
+      <c r="D209" s="21">
         <v>1.26E-2</v>
       </c>
       <c r="E209" s="15">
@@ -4072,7 +4079,7 @@
       <c r="C210" s="18">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="D210" s="18">
+      <c r="D210" s="20">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E210" s="19">
@@ -4089,7 +4096,7 @@
       <c r="C211" s="14">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="D211" s="14">
+      <c r="D211" s="21">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="E211" s="15">
@@ -4106,7 +4113,7 @@
       <c r="C212" s="18">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="D212" s="18">
+      <c r="D212" s="20">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E212" s="19">
@@ -4123,7 +4130,7 @@
       <c r="C213" s="14">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="D213" s="14">
+      <c r="D213" s="21">
         <v>1.9E-3</v>
       </c>
       <c r="E213" s="15">
@@ -4140,7 +4147,7 @@
       <c r="C214" s="18">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="D214" s="18">
+      <c r="D214" s="20">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="E214" s="19">
@@ -4157,7 +4164,7 @@
       <c r="C215" s="14">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="D215" s="14">
+      <c r="D215" s="21">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E215" s="15">
@@ -4174,7 +4181,7 @@
       <c r="C216" s="18">
         <v>8.09E-2</v>
       </c>
-      <c r="D216" s="18">
+      <c r="D216" s="20">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E216" s="19">
@@ -4191,7 +4198,7 @@
       <c r="C217" s="14">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="D217" s="14">
+      <c r="D217" s="21">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E217" s="15">
@@ -4208,7 +4215,7 @@
       <c r="C218" s="18">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="D218" s="18">
+      <c r="D218" s="20">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="E218" s="19">
@@ -4225,7 +4232,7 @@
       <c r="C219" s="14">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="D219" s="14">
+      <c r="D219" s="21">
         <v>1.15E-2</v>
       </c>
       <c r="E219" s="15">
@@ -4242,7 +4249,7 @@
       <c r="C220" s="18">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="D220" s="18">
+      <c r="D220" s="20">
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="E220" s="19">
@@ -4259,7 +4266,7 @@
       <c r="C221" s="14">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="D221" s="14">
+      <c r="D221" s="21">
         <v>1.89E-2</v>
       </c>
       <c r="E221" s="15">
@@ -4276,7 +4283,7 @@
       <c r="C222" s="18">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="D222" s="18">
+      <c r="D222" s="20">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="E222" s="19">
@@ -4293,7 +4300,7 @@
       <c r="C223" s="14">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D223" s="14">
+      <c r="D223" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E223" s="15">
@@ -4310,7 +4317,7 @@
       <c r="C224" s="18">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="D224" s="18">
+      <c r="D224" s="20">
         <v>3.3E-3</v>
       </c>
       <c r="E224" s="19">
@@ -4327,7 +4334,7 @@
       <c r="C225" s="14">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="D225" s="14">
+      <c r="D225" s="21">
         <v>1.5E-3</v>
       </c>
       <c r="E225" s="15">
@@ -4344,7 +4351,7 @@
       <c r="C226" s="18">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D226" s="18">
+      <c r="D226" s="20">
         <v>4.3E-3</v>
       </c>
       <c r="E226" s="19">
@@ -4361,7 +4368,7 @@
       <c r="C227" s="14">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="D227" s="14">
+      <c r="D227" s="21">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="E227" s="15">
@@ -4378,7 +4385,7 @@
       <c r="C228" s="18">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="D228" s="18">
+      <c r="D228" s="20">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="E228" s="19">
@@ -4395,7 +4402,7 @@
       <c r="C229" s="14">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="D229" s="14">
+      <c r="D229" s="21">
         <v>-2.0000000000000001E-4</v>
       </c>
       <c r="E229" s="15">
@@ -4412,7 +4419,7 @@
       <c r="C230" s="18">
         <v>0.1</v>
       </c>
-      <c r="D230" s="18">
+      <c r="D230" s="20">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="E230" s="19">
@@ -4429,7 +4436,7 @@
       <c r="C231" s="14">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="D231" s="14">
+      <c r="D231" s="21">
         <v>0.01</v>
       </c>
       <c r="E231" s="15">
@@ -4446,7 +4453,7 @@
       <c r="C232" s="18">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="D232" s="18">
+      <c r="D232" s="20">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="E232" s="19">
@@ -4463,7 +4470,7 @@
       <c r="C233" s="14">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="D233" s="14">
+      <c r="D233" s="21">
         <v>2.3E-2</v>
       </c>
       <c r="E233" s="15">
@@ -4480,7 +4487,7 @@
       <c r="C234" s="18">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="D234" s="18">
+      <c r="D234" s="20">
         <v>1.29E-2</v>
       </c>
       <c r="E234" s="19">
@@ -4497,7 +4504,7 @@
       <c r="C235" s="14">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="D235" s="14">
+      <c r="D235" s="21">
         <v>5.3E-3</v>
       </c>
       <c r="E235" s="15">
@@ -4514,7 +4521,7 @@
       <c r="C236" s="18">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="D236" s="18">
+      <c r="D236" s="20">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E236" s="19">
@@ -4531,7 +4538,7 @@
       <c r="C237" s="14">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="D237" s="14">
+      <c r="D237" s="21">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E237" s="15">
@@ -4548,7 +4555,7 @@
       <c r="C238" s="18">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="D238" s="18">
+      <c r="D238" s="20">
         <v>3.3E-3</v>
       </c>
       <c r="E238" s="19">
@@ -4565,7 +4572,7 @@
       <c r="C239" s="14">
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="D239" s="14">
+      <c r="D239" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E239" s="15">
@@ -4582,7 +4589,7 @@
       <c r="C240" s="18">
         <v>8.7800000000000003E-2</v>
       </c>
-      <c r="D240" s="18">
+      <c r="D240" s="20">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E240" s="19">
@@ -4599,7 +4606,7 @@
       <c r="C241" s="14">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="D241" s="14">
+      <c r="D241" s="21">
         <v>2.8E-3</v>
       </c>
       <c r="E241" s="15">
@@ -4616,7 +4623,7 @@
       <c r="C242" s="18">
         <v>9.98E-2</v>
       </c>
-      <c r="D242" s="18">
+      <c r="D242" s="20">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E242" s="19">
@@ -4633,7 +4640,7 @@
       <c r="C243" s="14">
         <v>0.11169999999999999</v>
       </c>
-      <c r="D243" s="14">
+      <c r="D243" s="21">
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="E243" s="15">
@@ -4650,7 +4657,7 @@
       <c r="C244" s="18">
         <v>0.1351</v>
       </c>
-      <c r="D244" s="18">
+      <c r="D244" s="20">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="E244" s="19">
@@ -4667,7 +4674,7 @@
       <c r="C245" s="14">
         <v>0.15379999999999999</v>
       </c>
-      <c r="D245" s="14">
+      <c r="D245" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E245" s="15">
@@ -4684,7 +4691,7 @@
       <c r="C246" s="18">
         <v>0.17180000000000001</v>
       </c>
-      <c r="D246" s="18">
+      <c r="D246" s="20">
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="E246" s="19">
@@ -4701,7 +4708,7 @@
       <c r="C247" s="14">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D247" s="14">
+      <c r="D247" s="21">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="E247" s="15">
@@ -4718,7 +4725,7 @@
       <c r="C248" s="18">
         <v>0.16350000000000001</v>
       </c>
-      <c r="D248" s="18">
+      <c r="D248" s="20">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="E248" s="19">
@@ -4735,7 +4742,7 @@
       <c r="C249" s="14">
         <v>0.1709</v>
       </c>
-      <c r="D249" s="14">
+      <c r="D249" s="21">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E249" s="15">
@@ -4752,7 +4759,7 @@
       <c r="C250" s="18">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D250" s="18">
+      <c r="D250" s="20">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E250" s="19">
@@ -4769,7 +4776,7 @@
       <c r="C251" s="14">
         <v>0.18940000000000001</v>
       </c>
-      <c r="D251" s="14">
+      <c r="D251" s="21">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E251" s="15">
@@ -4786,7 +4793,7 @@
       <c r="C252" s="18">
         <v>0.20269999999999999</v>
       </c>
-      <c r="D252" s="18">
+      <c r="D252" s="20">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E252" s="19">
@@ -4803,7 +4810,7 @@
       <c r="C253" s="14">
         <v>0.2069</v>
       </c>
-      <c r="D253" s="14">
+      <c r="D253" s="21">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="E253" s="15">
@@ -4820,7 +4827,7 @@
       <c r="C254" s="18">
         <v>0.20669999999999999</v>
       </c>
-      <c r="D254" s="18">
+      <c r="D254" s="20">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="E254" s="19">
@@ -4837,7 +4844,7 @@
       <c r="C255" s="14">
         <v>0.2074</v>
       </c>
-      <c r="D255" s="14">
+      <c r="D255" s="21">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E255" s="15">
@@ -4854,7 +4861,7 @@
       <c r="C256" s="18">
         <v>0.19239999999999999</v>
       </c>
-      <c r="D256" s="18">
+      <c r="D256" s="20">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E256" s="19">
@@ -4871,7 +4878,7 @@
       <c r="C257" s="14">
         <v>0.18029999999999999</v>
       </c>
-      <c r="D257" s="14">
+      <c r="D257" s="21">
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="E257" s="15">
@@ -4888,7 +4895,7 @@
       <c r="C258" s="18">
         <v>0.1784</v>
       </c>
-      <c r="D258" s="18">
+      <c r="D258" s="20">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="E258" s="19">
@@ -4905,7 +4912,7 @@
       <c r="C259" s="14">
         <v>0.17680000000000001</v>
       </c>
-      <c r="D259" s="14">
+      <c r="D259" s="21">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="E259" s="15">
@@ -4922,7 +4929,7 @@
       <c r="C260" s="18">
         <v>0.17810000000000001</v>
       </c>
-      <c r="D260" s="18">
+      <c r="D260" s="20">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E260" s="19">
@@ -4939,7 +4946,7 @@
       <c r="C261" s="14">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D261" s="14">
+      <c r="D261" s="21">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="E261" s="15">
@@ -4956,7 +4963,7 @@
       <c r="C262" s="18">
         <v>0.18010000000000001</v>
       </c>
-      <c r="D262" s="18">
+      <c r="D262" s="20">
         <v>1.26E-2</v>
       </c>
       <c r="E262" s="19">
@@ -4973,7 +4980,7 @@
       <c r="C263" s="14">
         <v>0.17929999999999999</v>
       </c>
-      <c r="D263" s="14">
+      <c r="D263" s="21">
         <v>1.14E-2</v>
       </c>
       <c r="E263" s="15">
@@ -4990,7 +4997,7 @@
       <c r="C264" s="18">
         <v>0.17879999999999999</v>
       </c>
-      <c r="D264" s="18">
+      <c r="D264" s="20">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="E264" s="19">
@@ -5007,7 +5014,7 @@
       <c r="C265" s="14">
         <v>0.1867</v>
       </c>
-      <c r="D265" s="14">
+      <c r="D265" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="E265" s="15">
@@ -5024,7 +5031,7 @@
       <c r="C266" s="18">
         <v>0.186</v>
       </c>
-      <c r="D266" s="18">
+      <c r="D266" s="20">
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="E266" s="19">
@@ -5041,7 +5048,7 @@
       <c r="C267" s="14">
         <v>0.1852</v>
       </c>
-      <c r="D267" s="14">
+      <c r="D267" s="21">
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="E267" s="15">
@@ -5058,7 +5065,7 @@
       <c r="C268" s="18">
         <v>0.1893</v>
       </c>
-      <c r="D268" s="18">
+      <c r="D268" s="20">
         <v>1.55E-2</v>
       </c>
       <c r="E268" s="19">
@@ -5075,7 +5082,7 @@
       <c r="C269" s="14">
         <v>0.1958</v>
       </c>
-      <c r="D269" s="14">
+      <c r="D269" s="21">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="E269" s="15">
@@ -5092,7 +5099,7 @@
       <c r="C270" s="18">
         <v>0.20619999999999999</v>
       </c>
-      <c r="D270" s="18">
+      <c r="D270" s="20">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="E270" s="19">
@@ -5109,7 +5116,7 @@
       <c r="C271" s="14">
         <v>0.21629999999999999</v>
       </c>
-      <c r="D271" s="14">
+      <c r="D271" s="21">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="E271" s="15">
@@ -5126,7 +5133,7 @@
       <c r="C272" s="18">
         <v>0.21879999999999999</v>
       </c>
-      <c r="D272" s="18">
+      <c r="D272" s="20">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E272" s="19">
@@ -5143,7 +5150,7 @@
       <c r="C273" s="14">
         <v>0.21870000000000001</v>
       </c>
-      <c r="D273" s="14">
+      <c r="D273" s="21">
         <v>1.15E-2</v>
       </c>
       <c r="E273" s="15">
@@ -5160,7 +5167,7 @@
       <c r="C274" s="18">
         <v>0.2155</v>
       </c>
-      <c r="D274" s="18">
+      <c r="D274" s="20">
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="E274" s="19">
@@ -5177,7 +5184,7 @@
       <c r="C275" s="14">
         <v>0.21129999999999999</v>
       </c>
-      <c r="D275" s="14">
+      <c r="D275" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E275" s="15">
@@ -5194,7 +5201,7 @@
       <c r="C276" s="18">
         <v>0.20569999999999999</v>
       </c>
-      <c r="D276" s="18">
+      <c r="D276" s="20">
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="E276" s="19">
@@ -5211,7 +5218,7 @@
       <c r="C277" s="14">
         <v>0.19700000000000001</v>
       </c>
-      <c r="D277" s="14">
+      <c r="D277" s="21">
         <v>1.14E-2</v>
       </c>
       <c r="E277" s="15">
@@ -5228,7 +5235,7 @@
       <c r="C278" s="18">
         <v>0.1978</v>
       </c>
-      <c r="D278" s="18">
+      <c r="D278" s="20">
         <v>1.55E-2</v>
       </c>
       <c r="E278" s="19">
@@ -5245,7 +5252,7 @@
       <c r="C279" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="D279" s="14">
+      <c r="D279" s="21">
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="E279" s="15">
@@ -5262,7 +5269,7 @@
       <c r="C280" s="18">
         <v>0.20200000000000001</v>
       </c>
-      <c r="D280" s="18">
+      <c r="D280" s="20">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="E280" s="19">
@@ -5279,7 +5286,7 @@
       <c r="C281" s="14">
         <v>0.20810000000000001</v>
       </c>
-      <c r="D281" s="14">
+      <c r="D281" s="21">
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="E281" s="15">
@@ -5296,7 +5303,7 @@
       <c r="C282" s="18">
         <v>0.2024</v>
       </c>
-      <c r="D282" s="18">
+      <c r="D282" s="20">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="E282" s="19">
@@ -5313,7 +5320,7 @@
       <c r="C283" s="14">
         <v>0.1946</v>
       </c>
-      <c r="D283" s="14">
+      <c r="D283" s="21">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E283" s="15">
@@ -5330,7 +5337,7 @@
       <c r="C284" s="18">
         <v>0.20130000000000001</v>
       </c>
-      <c r="D284" s="18">
+      <c r="D284" s="20">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="E284" s="19">
@@ -5347,7 +5354,7 @@
       <c r="C285" s="14">
         <v>0.20519999999999999</v>
       </c>
-      <c r="D285" s="14">
+      <c r="D285" s="21">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="E285" s="15">
@@ -5364,7 +5371,7 @@
       <c r="C286" s="18">
         <v>0.2079</v>
       </c>
-      <c r="D286" s="18">
+      <c r="D286" s="20">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="E286" s="19">
@@ -5381,7 +5388,7 @@
       <c r="C287" s="14">
         <v>0.2109</v>
       </c>
-      <c r="D287" s="14">
+      <c r="D287" s="21">
         <v>6.3E-3</v>
       </c>
       <c r="E287" s="15">
@@ -5398,8 +5405,8 @@
       <c r="C288" s="18">
         <v>0.215</v>
       </c>
-      <c r="D288" s="18">
-        <v>7.7000000000000002E-3</v>
+      <c r="D288" s="20">
+        <v>0</v>
       </c>
       <c r="E288" s="19">
         <v>0.14699999999999999</v>
